--- a/SequenceDiagram.xlsx
+++ b/SequenceDiagram.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="8985" tabRatio="648" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="18840" windowHeight="8985" tabRatio="819" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="START_SERVER" sheetId="1" r:id="rId1"/>
     <sheet name="RECEIVE_MESSAGE" sheetId="7" r:id="rId2"/>
     <sheet name="LOGIN" sheetId="2" r:id="rId3"/>
     <sheet name="REGISTER" sheetId="3" r:id="rId4"/>
-    <sheet name="CREATE_ROOM" sheetId="4" r:id="rId5"/>
-    <sheet name="JOIN_ROOM" sheetId="5" r:id="rId6"/>
-    <sheet name="START_GAME" sheetId="6" r:id="rId7"/>
-    <sheet name="CONTRL_GAME" sheetId="8" r:id="rId8"/>
+    <sheet name="JOIN_ROOM" sheetId="5" r:id="rId5"/>
+    <sheet name="START_GAME" sheetId="6" r:id="rId6"/>
+    <sheet name="CONTRL_GAME" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -23,10 +22,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,6 +45,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -53,7 +59,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -61,14 +67,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -84,18 +90,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,15 +105,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,21 +128,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -167,15 +159,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,13 +189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,25 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,6 +225,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,7 +249,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,79 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,19 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,6 +380,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -402,21 +416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -428,17 +427,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,9 +448,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,147 +471,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8834,5498 +8833,6 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2809240" y="1151890"/>
-          <a:ext cx="635" cy="6744335"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="1409700"/>
-          <a:ext cx="152400" cy="6333490"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Group 4"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2847975" y="1397635"/>
-          <a:ext cx="171450" cy="679450"/>
-          <a:chOff x="4470" y="2201"/>
-          <a:chExt cx="270" cy="1070"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4470" y="2565"/>
-            <a:ext cx="270" cy="706"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="Elbow Connector 6"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipV="1">
-            <a:off x="4396" y="2378"/>
-            <a:ext cx="491" cy="137"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector4">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -1018"/>
-              <a:gd name="adj2" fmla="val 472262"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>65405</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371850" y="1428750"/>
-          <a:ext cx="808355" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>readMsg()</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="876300"/>
-          <a:ext cx="664845" cy="266065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-            <a:t>:client </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>656590</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="656590" y="1142365"/>
-          <a:ext cx="635" cy="6687185"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="790575" y="1781175"/>
-          <a:ext cx="1819275" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Text Box 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4552950" y="876300"/>
-          <a:ext cx="2209800" cy="266065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-            <a:t>serviceHandler: ServiceHandler</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5638800" y="1142365"/>
-          <a:ext cx="19050" cy="6830060"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="3276600"/>
-          <a:ext cx="180975" cy="4465955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="1514475"/>
-          <a:ext cx="190500" cy="5971540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>267335</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Text Box 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="953135" y="1476375"/>
-          <a:ext cx="1245235" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>send(message)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>170815</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2552700" y="2219325"/>
-          <a:ext cx="7219315" cy="5391150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Folded Corner 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2552700" y="2219325"/>
-          <a:ext cx="647700" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Text Box 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2609850" y="2295525"/>
-          <a:ext cx="438150" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>opt</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Text Box 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3371850" y="3000375"/>
-          <a:ext cx="2236470" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>pushCommand(player, message)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>445135</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 27"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="2686050"/>
-          <a:ext cx="1169035" cy="294640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[message = '0%']</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2933700" y="3314700"/>
-          <a:ext cx="2543175" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="Group 30"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5676900" y="3343275"/>
-          <a:ext cx="171450" cy="679450"/>
-          <a:chOff x="4470" y="2201"/>
-          <a:chExt cx="270" cy="1070"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Rectangle 31"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4470" y="2565"/>
-            <a:ext cx="270" cy="706"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="Elbow Connector 32"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipV="1">
-            <a:off x="4396" y="2378"/>
-            <a:ext cx="491" cy="137"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector4">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -1018"/>
-              <a:gd name="adj2" fmla="val 472262"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5257800" y="4124325"/>
-          <a:ext cx="4048125" cy="3314065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="Group 36"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5276850" y="4143375"/>
-          <a:ext cx="647700" cy="381000"/>
-          <a:chOff x="8625" y="6825"/>
-          <a:chExt cx="1020" cy="600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Folded Corner 34"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8625" y="6825"/>
-            <a:ext cx="1020" cy="600"/>
-          </a:xfrm>
-          <a:prstGeom prst="foldedCorner">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="Text Box 35"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8715" y="6945"/>
-            <a:ext cx="690" cy="330"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-              <a:t>opt</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454660</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Text Box 37"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714625" y="2714625"/>
-          <a:ext cx="1169035" cy="294640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[message = '0%']</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368935</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 40"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5372100" y="4591050"/>
-          <a:ext cx="1169035" cy="294640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[message = '2%']</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Text Box 41"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7515225" y="866775"/>
-          <a:ext cx="1047750" cy="266065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-            <a:t>game: Game</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Connector 42"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7991475" y="1132840"/>
-          <a:ext cx="47625" cy="6953885"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5810250" y="5105400"/>
-          <a:ext cx="2095500" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>655955</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Text Box 44"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="4791075"/>
-          <a:ext cx="1322705" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>getEmptyRoom()</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5838825" y="5391150"/>
-          <a:ext cx="2066925" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>227330</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Text Box 46"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="5429250"/>
-          <a:ext cx="570230" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>room</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Text Box 47"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6238875" y="3381375"/>
-          <a:ext cx="808355" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>getMsg()</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="Group 48"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5676900" y="5676900"/>
-          <a:ext cx="171450" cy="679450"/>
-          <a:chOff x="4470" y="2201"/>
-          <a:chExt cx="270" cy="1070"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Rectangle 49"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4470" y="2565"/>
-            <a:ext cx="270" cy="706"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="Elbow Connector 50"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipV="1">
-            <a:off x="4396" y="2378"/>
-            <a:ext cx="491" cy="137"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector4">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -1018"/>
-              <a:gd name="adj2" fmla="val 472262"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>379095</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Text Box 51"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6219825" y="5743575"/>
-          <a:ext cx="1703070" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>setAdmin(player)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="54" name="Group 53"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5676900" y="6515100"/>
-          <a:ext cx="171450" cy="679450"/>
-          <a:chOff x="4470" y="2201"/>
-          <a:chExt cx="270" cy="1070"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="Rectangle 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4470" y="2565"/>
-            <a:ext cx="270" cy="706"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="Elbow Connector 55"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipV="1">
-            <a:off x="4396" y="2378"/>
-            <a:ext cx="491" cy="137"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector4">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -1018"/>
-              <a:gd name="adj2" fmla="val 472262"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>426085</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Text Box 56"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6210300" y="6562725"/>
-          <a:ext cx="1759585" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>addPlayer(player, room)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rectangle 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7924800" y="5010150"/>
-          <a:ext cx="171450" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="828675" y="7286625"/>
-          <a:ext cx="4733925" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="lgDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Text Box 59"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3114675" y="6962775"/>
-          <a:ext cx="1712595" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>response name, idroom</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1914525" y="885825"/>
-          <a:ext cx="1788795" cy="266065"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" u="sng">
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>listener: ClientListener</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66040</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -17621,7 +12128,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>368935</xdr:colOff>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180340</xdr:rowOff>
     </xdr:to>
@@ -17633,7 +12140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5372100" y="4591050"/>
-          <a:ext cx="1169035" cy="294640"/>
+          <a:ext cx="1406525" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17764,7 +12271,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[message = '3%']</a:t>
+            <a:t>[message = '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>%']</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
@@ -19756,8 +14271,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310515</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
@@ -19769,7 +14284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5467350" y="6115050"/>
-          <a:ext cx="1273175" cy="294640"/>
+          <a:ext cx="2386965" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19900,7 +14415,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[room is not full]</a:t>
+            <a:t>[room is not full </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>and not running</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>]</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
@@ -20339,7 +14862,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23814,8 +18337,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>368935</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180340</xdr:rowOff>
     </xdr:to>
@@ -23827,7 +18350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5372100" y="4591050"/>
-          <a:ext cx="1169035" cy="294640"/>
+          <a:ext cx="1492250" cy="294640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23958,7 +18481,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[message = '4%']</a:t>
+            <a:t>[message = '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>%']</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
@@ -26632,7 +21163,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -27814,16 +22345,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" u="sng"/>
-            <a:t>room</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100" u="sng"/>
-            <a:t>Room</a:t>
+            <a:t>room: Room</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" u="sng"/>
         </a:p>
@@ -29604,7 +24127,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[message = '0%']</a:t>
+            <a:t>[message = '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>%']</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
@@ -29770,20 +24301,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
-            <a:t>msgs = </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>getMsg(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
-            <a:t>batch_size</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>)</a:t>
+            <a:t>msgs = getMsg(batch_size)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
@@ -30001,13 +24520,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>response </a:t>
+            <a:t>response state game</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
-            <a:t>state game</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -30882,10 +25397,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>actionGame(player, msg)</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -31182,10 +25697,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>loop</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -31245,10 +25760,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>[msg in msgs]</a:t>
           </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -31624,18 +26139,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
-            <a:t>state</a:t>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
+            <a:t>state = getStateGame()</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t> = get</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
-            <a:t>StateGame()</a:t>
-          </a:r>
-          <a:endParaRPr lang="" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -32293,23 +26800,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
-            <a:t>player</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t> in </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
-            <a:t>players</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
-            <a:t>]</a:t>
+            <a:t>[player in players]</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100"/>
         </a:p>
@@ -32933,7 +27424,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -32966,7 +27457,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -32982,8 +27473,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32999,8 +27490,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C49" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33016,24 +27507,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D19" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
